--- a/Listados de Estudiantes.xlsx
+++ b/Listados de Estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Desktop\Trabajo\trabajo11\Listados de Estudiantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Desktop\Trabajo\trabajo11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B16C31C-2B96-4DE3-91CD-B7727C2A0334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402B6B74-6DC8-4C7C-9EBE-94DD2323742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudiantes" sheetId="1" r:id="rId1"/>
@@ -5019,19 +5019,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C760"/>
+  <dimension ref="A1:C759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C422" sqref="C422"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>783</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>784</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>785</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>786</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>788</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>789</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>790</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>791</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>792</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>793</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>794</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>795</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>796</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>797</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>798</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>799</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>800</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>801</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>802</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>803</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>804</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>805</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>806</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>807</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>808</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>809</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>810</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>811</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>812</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>813</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>814</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>815</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>816</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>817</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>818</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>819</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>820</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>821</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>822</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>823</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>824</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>825</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>826</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>827</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>828</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>829</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>830</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>831</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>832</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>833</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>834</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>835</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>836</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>837</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>838</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>839</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>840</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>841</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>842</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>843</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>844</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>845</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>846</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>847</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>848</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>849</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>850</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>851</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>852</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>853</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>854</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>855</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>856</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>857</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>858</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>859</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>860</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>861</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>862</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>863</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>864</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>865</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>866</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>867</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>868</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>869</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>870</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>871</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>872</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>873</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>874</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>875</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>876</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>877</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>878</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>879</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>880</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>881</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>882</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>883</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>884</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>885</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>886</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>887</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>888</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>889</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>890</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>891</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>892</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>893</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>894</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>895</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>896</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>897</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>898</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>899</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>900</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>901</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>902</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>903</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>904</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>905</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>906</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>907</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>908</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>909</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>910</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>911</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>912</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>913</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>914</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>915</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>916</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>917</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>918</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>919</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>920</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>921</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>922</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>923</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>924</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>925</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>926</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>927</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>928</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>929</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>930</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>931</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>932</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>933</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>934</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>935</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>936</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>937</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>938</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>939</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>940</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>941</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>942</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>943</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>944</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>945</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>946</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>947</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>948</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>949</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>950</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>951</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>952</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>953</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>954</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>955</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>956</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>957</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>958</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>959</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>960</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>961</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>962</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>963</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>964</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>965</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>966</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>967</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>968</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>969</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>970</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>971</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>972</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>973</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>974</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>975</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>976</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>977</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>978</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>979</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>980</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>981</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>982</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>983</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>984</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>985</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>986</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>987</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>988</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>989</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>990</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>991</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>992</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>993</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>994</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>995</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>996</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>997</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>998</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>999</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1000</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1001</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1002</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1003</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1004</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1005</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1006</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1007</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1008</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1009</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1010</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1011</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1012</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1013</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1014</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1015</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1016</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1017</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1018</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1019</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1020</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1021</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1022</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1023</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1024</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1025</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1026</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1027</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1028</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1029</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1030</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1031</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1032</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1033</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1034</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1035</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1036</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1037</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1038</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1039</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1040</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1041</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1042</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1043</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1044</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1045</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1046</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1047</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1048</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1049</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1050</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1051</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1052</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1053</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1054</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1055</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1056</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1057</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1058</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1059</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1060</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1061</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1062</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1063</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1064</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1065</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1066</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1067</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1068</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1069</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1070</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1071</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1072</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1073</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1074</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1075</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1076</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1077</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1078</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1079</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1080</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1081</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1082</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1083</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1084</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1085</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1086</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1087</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1088</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1089</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1090</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1091</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1092</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1093</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1094</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1095</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1096</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1097</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1098</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1099</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1100</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1101</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1102</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1103</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1104</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1105</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1106</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1107</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1108</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1109</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1110</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1111</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1112</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1113</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1114</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1115</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1116</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1117</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1118</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1119</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1120</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1121</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1122</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1123</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1124</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1125</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1126</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1127</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1128</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1129</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1130</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1131</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1132</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1133</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1134</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1135</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1136</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1137</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1138</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1139</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1140</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1141</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1142</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1143</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1144</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1145</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1146</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1147</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1148</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1149</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1150</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1151</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1152</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1153</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1154</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1155</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1156</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1157</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1158</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1159</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1160</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1161</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1162</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1163</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1164</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1165</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1166</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1167</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1168</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1169</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1170</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1171</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1172</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1173</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1174</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1175</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1176</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1177</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1178</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1179</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1180</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1181</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1182</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1183</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1184</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1185</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1186</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1187</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1188</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1189</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1190</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1191</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1192</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1193</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1194</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1195</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1196</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1197</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1198</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1199</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1200</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1201</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1202</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1203</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1204</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1205</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1206</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1207</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1208</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1209</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1210</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1211</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1212</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1213</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1214</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1215</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1216</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1217</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1218</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1219</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1220</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1221</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1222</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1223</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1224</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1225</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1226</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1227</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1228</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1229</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1230</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1231</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1232</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1233</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1234</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1235</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1236</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1237</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1238</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1239</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1240</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1241</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1242</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1243</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1244</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1245</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1246</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1247</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1248</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1249</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1250</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1251</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1252</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1253</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1254</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1255</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1256</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1257</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1258</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1259</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1260</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1261</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1262</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1263</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1264</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1265</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1266</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1267</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1268</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1269</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1270</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1271</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1272</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1273</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1274</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1275</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1276</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1277</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1278</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1279</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1280</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1281</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1282</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1283</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1284</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1285</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1286</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1287</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1288</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1289</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1290</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1291</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1292</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1293</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1294</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1295</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1296</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1297</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1298</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1299</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1300</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1301</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1302</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1303</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1304</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1305</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1306</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1307</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1308</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1309</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1310</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1311</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1312</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1313</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1314</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1315</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1316</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1317</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1318</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1319</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1320</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1321</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1322</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1323</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1324</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1325</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1326</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1327</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1328</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1329</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1330</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1331</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1332</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1333</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1334</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1335</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1336</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1337</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1338</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1339</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1340</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1341</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1342</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1343</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1344</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1345</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1346</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1347</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1348</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1349</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1350</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1351</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1352</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1353</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1354</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1355</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1356</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1357</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1358</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1359</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1360</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1361</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1362</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1363</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1364</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1365</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1366</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1367</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1368</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1369</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1370</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1371</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1372</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1373</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1374</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="594" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1375</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1376</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1377</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="597" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1378</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="598" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1379</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1380</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1381</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="601" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1382</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1383</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1384</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1385</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="605" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1386</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1387</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="607" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1388</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="608" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1389</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1390</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1391</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1392</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1393</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1394</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1395</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1396</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1397</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1398</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1399</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="619" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1400</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="620" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1401</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1402</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="622" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1403</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1404</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1405</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1406</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="626" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1407</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="627" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1408</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="628" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1409</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="629" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1410</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="630" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1411</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="631" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1412</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1413</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="633" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1414</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="634" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1415</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="635" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1416</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="636" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1417</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="637" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1418</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="638" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1419</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="639" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1420</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="640" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1421</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1422</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="642" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1423</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1424</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="644" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1425</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="645" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1426</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="646" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1427</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="647" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1428</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1429</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="649" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1430</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="650" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1431</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="651" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1432</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="652" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1433</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1434</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="654" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1435</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="655" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1436</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="656" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1437</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="657" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1438</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="658" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1439</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="659" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1440</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1441</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="661" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1442</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="662" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1443</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="663" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1444</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="664" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1445</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="665" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1446</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="666" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1447</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="667" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1448</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="668" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1449</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="669" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1450</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="670" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1451</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="671" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1452</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="672" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1453</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="673" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1454</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="674" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1455</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="675" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1456</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="676" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1457</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="677" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1458</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="678" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1459</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="679" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1460</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="680" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1461</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="681" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1462</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="682" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1463</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="683" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1464</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="684" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1465</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="685" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1466</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="686" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1467</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1468</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="688" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1469</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="689" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1470</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1471</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="691" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1472</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1473</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="693" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1474</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="694" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1475</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="695" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1476</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="696" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1477</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="697" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1478</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="698" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1479</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="699" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1480</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="700" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1481</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="701" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1482</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="702" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1483</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="703" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1484</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="704" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1485</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="705" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1486</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="706" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1487</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="707" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1488</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1489</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="709" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1490</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="710" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1491</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1492</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1493</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="713" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1494</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1495</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1496</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1497</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="717" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1498</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1499</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1500</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="720" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1501</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="721" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1502</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="722" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1503</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="723" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1504</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="724" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1505</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="725" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1506</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="726" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1507</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1508</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="728" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1509</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="729" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1510</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="730" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1511</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1512</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="732" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1513</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="733" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1514</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="734" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1515</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1516</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1517</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1518</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1519</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1520</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1521</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1522</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1523</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1524</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1525</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1526</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1527</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1528</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1529</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1530</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1531</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1532</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1533</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1534</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1535</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1536</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1537</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1538</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1539</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1540</v>
       </c>
@@ -13380,7 +13380,6 @@
         <v>782</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
